--- a/RPAFinalProject/Data/Config.xlsx
+++ b/RPAFinalProject/Data/Config.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem5\rpa\final-project\project\RPAFinalProject\RPAFinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BA1873-D442-437C-8D38-27359180CF06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98D68E2-72CF-43F3-8C4E-7C678E24603D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{FDE95996-2855-4313-BBCC-E637A92D863D}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>path where the Input file from Google Drive will be downloaded</t>
+  </si>
+  <si>
+    <t>outputChartsPath</t>
+  </si>
+  <si>
+    <t>D:\sem5\rpa\final-project\project\RPAFinalProject\RPAFinalProject\Data\Output\Charts</t>
+  </si>
+  <si>
+    <t>path where the charts (as pdfs) will be saved</t>
   </si>
 </sst>
 </file>
@@ -430,16 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C9F770-5B9E-40AD-B46E-53BBC7457D51}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="116.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -498,6 +507,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RPAFinalProject/Data/Config.xlsx
+++ b/RPAFinalProject/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem5\rpa\final-project\project\RPAFinalProject\RPAFinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98D68E2-72CF-43F3-8C4E-7C678E24603D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50B7FE-1798-428E-8A52-D5249CB32215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{FDE95996-2855-4313-BBCC-E637A92D863D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>path where the charts (as pdfs) will be saved</t>
+  </si>
+  <si>
+    <t>projectFolderID</t>
+  </si>
+  <si>
+    <t>12b1y-sg6E5rox-ntC2UustqiREhdGE5X</t>
+  </si>
+  <si>
+    <t>ID of project ID from Drive</t>
   </si>
 </sst>
 </file>
@@ -439,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C9F770-5B9E-40AD-B46E-53BBC7457D51}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,6 +527,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RPAFinalProject/Data/Config.xlsx
+++ b/RPAFinalProject/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem5\rpa\final-project\project\RPAFinalProject\RPAFinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50B7FE-1798-428E-8A52-D5249CB32215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3B3382-3775-4278-8CE3-D6BAC5CB726B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{FDE95996-2855-4313-BBCC-E637A92D863D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -88,13 +88,22 @@
   </si>
   <si>
     <t>ID of project ID from Drive</t>
+  </si>
+  <si>
+    <t>recipientEmail</t>
+  </si>
+  <si>
+    <t>fwf.mentorship@gmail.com</t>
+  </si>
+  <si>
+    <t>where to send email notification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +115,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,14 +145,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C9F770-5B9E-40AD-B46E-53BBC7457D51}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,8 +558,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{B94728A1-2B44-49D5-A016-224EBB81B734}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/RPAFinalProject/Data/Config.xlsx
+++ b/RPAFinalProject/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem5\rpa\final-project\project\RPAFinalProject\RPAFinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3B3382-3775-4278-8CE3-D6BAC5CB726B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01E225B-9B79-4426-AD59-5F82688E64C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{FDE95996-2855-4313-BBCC-E637A92D863D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>inputFileID</t>
   </si>
   <si>
-    <t>1Ix-9IrsQ31uFQV4gJklX3p8f1PwSPBFW</t>
-  </si>
-  <si>
     <t>the impersonated user's email address used by ServiceAccountKey</t>
   </si>
   <si>
@@ -90,13 +87,22 @@
     <t>ID of project ID from Drive</t>
   </si>
   <si>
-    <t>recipientEmail</t>
-  </si>
-  <si>
     <t>fwf.mentorship@gmail.com</t>
   </si>
   <si>
     <t>where to send email notification</t>
+  </si>
+  <si>
+    <t>clientEmail</t>
+  </si>
+  <si>
+    <t>supportEmail</t>
+  </si>
+  <si>
+    <t>where to send email notification when an error occurs</t>
+  </si>
+  <si>
+    <t>1chI90I6AUyrwVRycwP2d6StQoBFiojLG</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C9F770-5B9E-40AD-B46E-53BBC7457D51}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,61 +525,73 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{B94728A1-2B44-49D5-A016-224EBB81B734}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{A21688A1-9FF9-492B-8BAE-E4958FB1B731}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{7382B99E-A0DB-412E-BA8E-7386816E6BC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/RPAFinalProject/Data/Config.xlsx
+++ b/RPAFinalProject/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem5\rpa\final-project\project\RPAFinalProject\RPAFinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01E225B-9B79-4426-AD59-5F82688E64C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC52F2A-C271-45AE-B072-2596F0F1C667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{FDE95996-2855-4313-BBCC-E637A92D863D}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>outputChartsPath</t>
   </si>
   <si>
-    <t>D:\sem5\rpa\final-project\project\RPAFinalProject\RPAFinalProject\Data\Output\Charts</t>
-  </si>
-  <si>
     <t>path where the charts (as pdfs) will be saved</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>1chI90I6AUyrwVRycwP2d6StQoBFiojLG</t>
+  </si>
+  <si>
+    <t>Data\Output\Charts</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -547,43 +547,43 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/RPAFinalProject/Data/Config.xlsx
+++ b/RPAFinalProject/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem5\rpa\final-project\project\RPAFinalProject\RPAFinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC52F2A-C271-45AE-B072-2596F0F1C667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F459E9-D035-4BEC-830F-216A04C55DEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{FDE95996-2855-4313-BBCC-E637A92D863D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -99,10 +99,10 @@
     <t>where to send email notification when an error occurs</t>
   </si>
   <si>
-    <t>1chI90I6AUyrwVRycwP2d6StQoBFiojLG</t>
-  </si>
-  <si>
     <t>Data\Output\Charts</t>
+  </si>
+  <si>
+    <t>1UkpOzQDBRoJm0gA7heKQSTKO7W9gfflV</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -547,7 +547,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -568,9 +568,7 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -589,9 +587,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{A21688A1-9FF9-492B-8BAE-E4958FB1B731}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{7382B99E-A0DB-412E-BA8E-7386816E6BC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>